--- a/Pianif-turni-svf_vuoto.xlsx
+++ b/Pianif-turni-svf_vuoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekung/IdeaProjects/Festival-Flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C99E8-4FD7-CF4E-8F5B-58614C4ED48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F683F3D-AFF9-0544-B682-06F9DA0AC954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="33600" windowHeight="19240" activeTab="1" xr2:uid="{AD5D2C06-5F39-429C-BA90-7167291EC275}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" activeTab="5" xr2:uid="{AD5D2C06-5F39-429C-BA90-7167291EC275}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="view 1" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="view 2" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="input" sheetId="1" state="hidden" r:id="rId5"/>
+    <sheet name="ByLocation" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mainp!$B$1:$BI$319</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12484" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13785" uniqueCount="656">
   <si>
     <t>v01</t>
   </si>
@@ -1669,21 +1670,6 @@
     <t>ciao ciao</t>
   </si>
   <si>
-    <t>Primo turno</t>
-  </si>
-  <si>
-    <t>Secondo turno</t>
-  </si>
-  <si>
-    <t>weihu2</t>
-  </si>
-  <si>
-    <t>w3iuhg</t>
-  </si>
-  <si>
-    <t>ciaoj</t>
-  </si>
-  <si>
     <t>2w23uh</t>
   </si>
   <si>
@@ -1710,13 +1696,328 @@
   <si>
     <t>38gday: 3location: Fourth Stage</t>
   </si>
+  <si>
+    <t>Primoturnoday: 1location: Main Stage</t>
+  </si>
+  <si>
+    <t>Secondoturnoday: 1location: Second Stage</t>
+  </si>
+  <si>
+    <t>Primoturno</t>
+  </si>
+  <si>
+    <t>weihu2</t>
+  </si>
+  <si>
+    <t>Secondoturno</t>
+  </si>
+  <si>
+    <t>w3iuhg</t>
+  </si>
+  <si>
+    <t>ciaoj</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Main Stage</t>
+  </si>
+  <si>
+    <t>Second Stage</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Third Stage</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Fourth Stage</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Serravalle</t>
+  </si>
+  <si>
+    <t>0606060607</t>
+  </si>
+  <si>
+    <t>jane.doe@gmail.com</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Blenio</t>
+  </si>
+  <si>
+    <t>0606060608</t>
+  </si>
+  <si>
+    <t>bob.smith@gmail.com</t>
+  </si>
+  <si>
+    <t>Bob Smith</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Biasca</t>
+  </si>
+  <si>
+    <t>0606060609</t>
+  </si>
+  <si>
+    <t>alice.johnson@gmail.com</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Bellinzona</t>
+  </si>
+  <si>
+    <t>0606060610</t>
+  </si>
+  <si>
+    <t>charlie.brown@gmail.com</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Turno 1day: 1location: Main Stage</t>
+  </si>
+  <si>
+    <t>Turno 2day: 1location: Main Stage</t>
+  </si>
+  <si>
+    <t>Turno 3day: 1location: Main Stage</t>
+  </si>
+  <si>
+    <t>Turno 1day: 1location: Bar</t>
+  </si>
+  <si>
+    <t>Turno 2day: 1location: Bar</t>
+  </si>
+  <si>
+    <t>Turno 3day: 1location: Bar</t>
+  </si>
+  <si>
+    <t>Turno 1day: 1location: Cassa</t>
+  </si>
+  <si>
+    <t>Turno 2day: 1location: Cassa</t>
+  </si>
+  <si>
+    <t>Turno 3day: 1location: Cassa</t>
+  </si>
+  <si>
+    <t>Turno 1day: 1location: Bicchieri</t>
+  </si>
+  <si>
+    <t>Turno 2day: 1location: Bicchieri</t>
+  </si>
+  <si>
+    <t>Turno 3day: 1location: Bicchieri</t>
+  </si>
+  <si>
+    <t>Turno 1day: 1location: Rifornimento</t>
+  </si>
+  <si>
+    <t>Turno 2day: 1location: Rifornimento</t>
+  </si>
+  <si>
+    <t>Turno 3day: 1location: Rifornimento</t>
+  </si>
+  <si>
+    <t>Turno 1day: 2location: Main Stage</t>
+  </si>
+  <si>
+    <t>Turno 2day: 2location: Main Stage</t>
+  </si>
+  <si>
+    <t>Turno 3day: 2location: Main Stage</t>
+  </si>
+  <si>
+    <t>Turno 1day: 2location: Bar</t>
+  </si>
+  <si>
+    <t>Turno 2day: 2location: Bar</t>
+  </si>
+  <si>
+    <t>Turno 3day: 2location: Bar</t>
+  </si>
+  <si>
+    <t>Turno 1day: 2location: Cassa</t>
+  </si>
+  <si>
+    <t>Turno 2day: 2location: Cassa</t>
+  </si>
+  <si>
+    <t>Turno 3day: 2location: Cassa</t>
+  </si>
+  <si>
+    <t>Turno 1day: 2location: Bicchieri</t>
+  </si>
+  <si>
+    <t>Turno 2day: 2location: Bicchieri</t>
+  </si>
+  <si>
+    <t>Turno 3day: 2location: Bicchieri</t>
+  </si>
+  <si>
+    <t>Turno 1day: 2location: Rifornimento</t>
+  </si>
+  <si>
+    <t>Turno 2day: 2location: Rifornimento</t>
+  </si>
+  <si>
+    <t>Turno 3day: 2location: Rifornimento</t>
+  </si>
+  <si>
+    <t>Turno 1day: 3location: Main Stage</t>
+  </si>
+  <si>
+    <t>Turno 2day: 3location: Main Stage</t>
+  </si>
+  <si>
+    <t>Turno 3day: 3location: Main Stage</t>
+  </si>
+  <si>
+    <t>Turno 1day: 3location: Bar</t>
+  </si>
+  <si>
+    <t>Turno 2day: 3location: Bar</t>
+  </si>
+  <si>
+    <t>Turno 3day: 3location: Bar</t>
+  </si>
+  <si>
+    <t>Turno 1day: 3location: Cassa</t>
+  </si>
+  <si>
+    <t>Turno 2day: 3location: Cassa</t>
+  </si>
+  <si>
+    <t>Turno 3day: 3location: Cassa</t>
+  </si>
+  <si>
+    <t>Turno 1day: 3location: Bicchieri</t>
+  </si>
+  <si>
+    <t>Turno 2day: 3location: Bicchieri</t>
+  </si>
+  <si>
+    <t>Turno 3day: 3location: Bicchieri</t>
+  </si>
+  <si>
+    <t>Turno 1day: 3location: Rifornimento</t>
+  </si>
+  <si>
+    <t>Turno 2day: 3location: Rifornimento</t>
+  </si>
+  <si>
+    <t>Turno 3day: 3location: Rifornimento</t>
+  </si>
+  <si>
+    <t>Venerdì</t>
+  </si>
+  <si>
+    <t>Turno 1</t>
+  </si>
+  <si>
+    <t>Turno 2</t>
+  </si>
+  <si>
+    <t>Turno 3</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Bicchieri</t>
+  </si>
+  <si>
+    <t>Sabato</t>
+  </si>
+  <si>
+    <t>Domenica</t>
+  </si>
+  <si>
+    <t>ciao.ciao@gmail.com</t>
+  </si>
+  <si>
+    <t>2ij.soijd@gmail.com</t>
+  </si>
+  <si>
+    <t>Secondo turnoday: 1location: Main Stage</t>
+  </si>
+  <si>
+    <t>Terzo turnoday: 1location: Main Stage</t>
+  </si>
+  <si>
+    <t>Primo turnoday: 1location: Second Stage</t>
+  </si>
+  <si>
+    <t>Terzo turnoday: 2location: Third Stage</t>
+  </si>
+  <si>
+    <t>Primo turnoday: 3location: Fourth Stage</t>
+  </si>
+  <si>
+    <t>Primo turno</t>
+  </si>
+  <si>
+    <t>Secondo turno</t>
+  </si>
+  <si>
+    <t>Terzo turno</t>
+  </si>
+  <si>
+    <t>soijiosjiod</t>
+  </si>
+  <si>
+    <t>Giuseppe soijiosjiod</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1781,6 +2082,61 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2179,7 +2535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2613,26 +2969,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4524,7 +4879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA59612-5A06-441A-8D14-BA92F81DC005}">
   <dimension ref="A1:BI1207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -4596,131 +4951,139 @@
       </c>
       <c r="O1" s="38"/>
       <c r="P1" t="s" s="1">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>547</v>
-      </c>
-      <c r="Y1" s="73" t="s">
-        <v>229</v>
+        <v>599</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>600</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>548</v>
-      </c>
-      <c r="AA1" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB1" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC1" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD1" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE1" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF1" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG1" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH1" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI1" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ1" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK1" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL1" s="74" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM1" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN1" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="AO1" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP1" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="AQ1" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="AR1" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS1" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="AT1" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="AU1" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="AV1" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="AW1" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="AX1" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="AZ1" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA1" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB1" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="BD1" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="BE1" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="BF1" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="78" t="s">
-        <v>337</v>
+        <v>601</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>602</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>603</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>604</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>605</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>606</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>608</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>609</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>611</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>612</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>613</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>614</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>615</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>616</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>617</v>
+      </c>
+      <c r="AQ1" t="s" s="1">
+        <v>618</v>
+      </c>
+      <c r="AR1" t="s" s="1">
+        <v>619</v>
+      </c>
+      <c r="AS1" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="AT1" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="AU1" t="s" s="1">
+        <v>622</v>
+      </c>
+      <c r="AV1" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="AW1" t="s" s="1">
+        <v>624</v>
+      </c>
+      <c r="AX1" t="s" s="1">
+        <v>625</v>
+      </c>
+      <c r="AY1" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="AZ1" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="BA1" t="s" s="1">
+        <v>628</v>
+      </c>
+      <c r="BB1" t="s" s="1">
+        <v>629</v>
+      </c>
+      <c r="BC1" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="BD1" t="s" s="39">
+        <v>631</v>
+      </c>
+      <c r="BE1" t="s" s="39">
+        <v>632</v>
+      </c>
+      <c r="BF1" t="s" s="39">
+        <v>633</v>
+      </c>
+      <c r="BG1" t="s" s="8">
+        <v>634</v>
+      </c>
+      <c r="BH1" t="s" s="64">
+        <v>635</v>
       </c>
       <c r="BI1" s="53" t="s">
         <v>338</v>
@@ -4731,34 +5094,34 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n" s="40">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>172</v>
+        <v>571</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>521</v>
+        <v>572</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>522</v>
+        <v>573</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>34.0</v>
       </c>
       <c r="G2" t="s" s="43">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>525</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>526</v>
+        <v>576</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="51"/>
@@ -4898,7 +5261,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n" s="40">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>527</v>
@@ -5068,33 +5431,35 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>34.0</v>
       </c>
       <c r="G4" t="s" s="43">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>532</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>583</v>
+      </c>
+      <c r="M4" t="s" s="1">
+        <v>535</v>
+      </c>
       <c r="N4" s="51"/>
       <c r="P4" s="4" t="s">
         <v>414</v>
@@ -5235,31 +5600,31 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>533</v>
+        <v>584</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>534</v>
+        <v>585</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>34.0</v>
       </c>
       <c r="G5" t="s" s="43">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>536</v>
+        <v>590</v>
       </c>
       <c r="M5" t="s" s="1">
         <v>535</v>
@@ -5401,34 +5766,34 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n" s="40">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>537</v>
+        <v>585</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>16.0</v>
+        <v>34.0</v>
       </c>
       <c r="G6" t="s" s="43">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="M6" t="s" s="1">
         <v>535</v>
@@ -5568,16 +5933,42 @@
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="3"/>
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n" s="40">
+        <v>6.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G7" t="s" s="43">
+        <v>523</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="M7" t="s" s="1">
+        <v>535</v>
+      </c>
       <c r="N7" s="51"/>
       <c r="P7" s="4" t="s">
         <v>414</v>
@@ -5711,15 +6102,39 @@
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="L8" s="80"/>
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n" s="40">
+        <v>7.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G8" t="s" s="43">
+        <v>523</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>532</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="51"/>
       <c r="P8" s="4" t="s">
@@ -5854,16 +6269,42 @@
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="3"/>
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G9" t="s" s="43">
+        <v>523</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="M9" t="s" s="1">
+        <v>535</v>
+      </c>
       <c r="N9" s="51"/>
       <c r="P9" s="4" t="s">
         <v>414</v>
@@ -5997,16 +6438,42 @@
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="3"/>
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G10" t="s" s="43">
+        <v>523</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="M10" t="s" s="1">
+        <v>535</v>
+      </c>
       <c r="N10" s="51"/>
       <c r="P10" s="4" t="s">
         <v>414</v>
@@ -6140,16 +6607,42 @@
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="3"/>
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n" s="40">
+        <v>10.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G11" t="s" s="43">
+        <v>523</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="M11" t="s" s="1">
+        <v>535</v>
+      </c>
       <c r="N11" s="51"/>
       <c r="P11" s="4" t="s">
         <v>414</v>
@@ -45039,34 +45532,34 @@
       <c r="B283" s="40">
         <v>4</v>
       </c>
-      <c r="C283" s="150" t="s">
+      <c r="C283" s="149" t="s">
         <v>533</v>
       </c>
-      <c r="D283" s="150" t="s">
+      <c r="D283" s="149" t="s">
         <v>534</v>
       </c>
-      <c r="E283" s="150" t="s">
+      <c r="E283" s="149" t="s">
         <v>522</v>
       </c>
-      <c r="F283" s="150">
+      <c r="F283" s="149">
         <v>34</v>
       </c>
-      <c r="G283" s="152" t="s">
+      <c r="G283" s="150" t="s">
         <v>523</v>
       </c>
-      <c r="H283" s="150" t="s">
+      <c r="H283" s="149" t="s">
         <v>524</v>
       </c>
-      <c r="I283" s="150" t="s">
+      <c r="I283" s="149" t="s">
         <v>525</v>
       </c>
-      <c r="J283" s="150">
+      <c r="J283" s="149">
         <v>0</v>
       </c>
-      <c r="L283" s="150" t="s">
+      <c r="L283" s="149" t="s">
         <v>536</v>
       </c>
-      <c r="M283" s="155" t="s">
+      <c r="M283" s="151" t="s">
         <v>535</v>
       </c>
       <c r="N283" s="51"/>
@@ -45205,37 +45698,37 @@
       <c r="B284" s="40">
         <v>5</v>
       </c>
-      <c r="C284" s="150" t="s">
+      <c r="C284" s="149" t="s">
         <v>537</v>
       </c>
-      <c r="D284" s="150" t="s">
+      <c r="D284" s="149" t="s">
         <v>537</v>
       </c>
-      <c r="E284" s="150" t="s">
+      <c r="E284" s="149" t="s">
         <v>538</v>
       </c>
-      <c r="F284" s="150">
+      <c r="F284" s="149">
         <v>16</v>
       </c>
-      <c r="G284" s="150" t="s">
+      <c r="G284" s="149" t="s">
         <v>539</v>
       </c>
-      <c r="H284" s="150" t="s">
+      <c r="H284" s="149" t="s">
         <v>540</v>
       </c>
-      <c r="I284" s="150" t="s">
+      <c r="I284" s="149" t="s">
         <v>525</v>
       </c>
-      <c r="J284" s="150">
+      <c r="J284" s="149">
         <v>0</v>
       </c>
-      <c r="L284" s="150" t="s">
+      <c r="L284" s="149" t="s">
         <v>541</v>
       </c>
-      <c r="M284" s="150" t="s">
+      <c r="M284" s="149" t="s">
         <v>535</v>
       </c>
-      <c r="N284" s="156" t="s">
+      <c r="N284" s="152" t="s">
         <v>535</v>
       </c>
       <c r="P284" s="4" t="s">
@@ -49597,6 +50090,26 @@
       <sortCondition ref="T1:T319"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="18">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="Q1:AE1"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AF1:AT1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -64777,4 +65290,726 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AT100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="6.1640625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B1" t="s" s="163">
+        <v>636</v>
+      </c>
+      <c r="Q1" t="s" s="163">
+        <v>642</v>
+      </c>
+      <c r="AF1" t="s" s="163">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="163">
+        <v>559</v>
+      </c>
+      <c r="E2" t="s" s="163">
+        <v>640</v>
+      </c>
+      <c r="H2" t="s" s="163">
+        <v>438</v>
+      </c>
+      <c r="K2" t="s" s="163">
+        <v>641</v>
+      </c>
+      <c r="N2" t="s" s="163">
+        <v>439</v>
+      </c>
+      <c r="Q2" t="s" s="163">
+        <v>559</v>
+      </c>
+      <c r="T2" t="s" s="163">
+        <v>640</v>
+      </c>
+      <c r="W2" t="s" s="163">
+        <v>438</v>
+      </c>
+      <c r="Z2" t="s" s="163">
+        <v>641</v>
+      </c>
+      <c r="AC2" t="s" s="163">
+        <v>439</v>
+      </c>
+      <c r="AF2" t="s" s="163">
+        <v>559</v>
+      </c>
+      <c r="AI2" t="s" s="163">
+        <v>640</v>
+      </c>
+      <c r="AL2" t="s" s="163">
+        <v>438</v>
+      </c>
+      <c r="AO2" t="s" s="163">
+        <v>641</v>
+      </c>
+      <c r="AR2" t="s" s="163">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="C3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="D3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="E3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="F3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="G3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="H3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="I3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="J3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="K3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="L3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="M3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="N3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="O3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="P3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="Q3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="R3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="S3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="T3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="U3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="V3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="W3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="X3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="Y3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="Z3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="AA3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="AB3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="AC3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="AD3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="AE3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="AF3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="AG3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="AH3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="AI3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="AJ3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="AK3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="AL3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="AM3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="AN3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="AO3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="AP3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="AQ3" t="s" s="163">
+        <v>639</v>
+      </c>
+      <c r="AR3" t="s" s="163">
+        <v>637</v>
+      </c>
+      <c r="AS3" t="s" s="163">
+        <v>638</v>
+      </c>
+      <c r="AT3" t="s" s="163">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="0">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="0">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="0">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="0">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="0">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="0">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="0">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="0">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="0">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="0">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="0">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="0">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="0">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="0">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="0">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="0">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="0">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="0">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="0">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="0">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="0">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="0">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="0">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="0">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="0">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="0">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="0">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="0">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="0">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="0">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="0">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="0">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="0">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="0">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="0">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="0">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="0">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n" s="0">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n" s="0">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n" s="0">
+        <v>91.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="0">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n" s="0">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n" s="0">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="0">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="0">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="0">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="0">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="0">
+        <v>99.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>